--- a/raw/qd-stand.xlsx
+++ b/raw/qd-stand.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\zeitkapsel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\zeitkapsel\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>verlagsname</t>
   </si>
@@ -48,13 +48,43 @@
   </si>
   <si>
     <t>!1064303129!</t>
+  </si>
+  <si>
+    <t>Verlagskürzel</t>
+  </si>
+  <si>
+    <t>IDN QD</t>
+  </si>
+  <si>
+    <t>Personenname</t>
+  </si>
+  <si>
+    <t>Pidn</t>
+  </si>
+  <si>
+    <t>Graupner, Sylvia</t>
+  </si>
+  <si>
+    <t>!122588517!</t>
+  </si>
+  <si>
+    <t>!test!</t>
+  </si>
+  <si>
+    <t>Faber-Castell</t>
+  </si>
+  <si>
+    <t>Adeo</t>
+  </si>
+  <si>
+    <t>Adocs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -67,6 +97,14 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -372,47 +412,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="3" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
